--- a/Data_Base/Cleaning of food transport containers and aircraft wash.xlsx
+++ b/Data_Base/Cleaning of food transport containers and aircraft wash.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7370" activeTab="1"/>
+    <workbookView windowWidth="19100" windowHeight="7370"/>
   </bookViews>
   <sheets>
     <sheet name="Company 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>Process</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Sales Price</t>
+  </si>
+  <si>
+    <t>Con_Contamination</t>
   </si>
   <si>
     <t>aircraft wash</t>
@@ -76,12 +79,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +93,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FFBCA366"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -97,8 +151,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,59 +174,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -173,6 +182,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -181,32 +206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +223,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,12 +252,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -267,13 +396,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,139 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,15 +443,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -461,17 +461,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +481,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,26 +529,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -555,135 +564,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,10 +1015,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
@@ -1021,7 +1033,7 @@
     <col min="11" max="11" width="22.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" ht="40.5" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1058,10 +1070,13 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>120</v>
@@ -1085,54 +1100,57 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2">
         <v>750</v>
       </c>
       <c r="L2">
         <v>0.75</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1144,10 +1162,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
@@ -1164,7 +1182,7 @@
     <col min="12" max="12" width="10.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" ht="40.5" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1201,10 +1219,13 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -1228,54 +1249,57 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2">
         <v>85</v>
       </c>
       <c r="L2">
         <v>0.75</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
